--- a/Design/PROBLEM_DESIGN.xlsx
+++ b/Design/PROBLEM_DESIGN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>REMAINING</t>
   </si>
@@ -181,13 +181,25 @@
   </si>
   <si>
     <t>How to Design a library</t>
+  </si>
+  <si>
+    <t>8 Things You Need to Know Before a System Design Interview</t>
+  </si>
+  <si>
+    <t>to note</t>
+  </si>
+  <si>
+    <t>Database Sharding</t>
+  </si>
+  <si>
+    <t>Database Partitioning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +241,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +270,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,9 +300,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,11 +644,11 @@
       </c>
       <c r="B3" s="2">
         <f>COUNTIFS(A4:A987,"&lt;&gt;",B4:B987,"")</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>"TO CODE: "&amp;COUNTIFS(C4:C984,"to code*")</f>
-        <v>TO CODE: 0</v>
+        <f>"TO NOTE: "&amp;COUNTIFS(C4:C984,"to note*")</f>
+        <v>TO NOTE: 0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -766,12 +791,12 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -783,6 +808,16 @@
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -813,14 +848,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -846,138 +883,153 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <f>COUNTIFS(A4:A987,"&lt;&gt;",B4:B987,"")</f>
-        <v>20</v>
+        <f>COUNTIFS(A4:A988,"&lt;&gt;",B4:B988,"")</f>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>"TO CODE: "&amp;COUNTIFS(C4:C984,"to code*")</f>
-        <v>TO CODE: 0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+        <f>"TO NOTE: "&amp;COUNTIFS(C4:C985,"to note*")</f>
+        <v>TO NOTE: 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="15" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://blog.gainlo.co/index.php/2016/09/12/dropbox-interview-design-hit-counter/"/>
-    <hyperlink ref="A6" r:id="rId2" display="http://blog.gainlo.co/index.php/2016/08/28/design-ecommerce-website-part-ii/"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://blog.gainlo.co/index.php/2016/08/22/design-ecommerce-website-part/"/>
-    <hyperlink ref="A8" r:id="rId4" display="http://blog.gainlo.co/index.php/2016/08/08/design-garbage-collection-system-part-ii/"/>
-    <hyperlink ref="A7" r:id="rId5" display="http://blog.gainlo.co/index.php/2016/07/25/design-a-garbage-collection-system-part-i/"/>
-    <hyperlink ref="A9" r:id="rId6" display="http://blog.gainlo.co/index.php/2016/06/29/build-web-crawler/"/>
-    <hyperlink ref="A11" r:id="rId7" display="http://blog.gainlo.co/index.php/2016/06/21/design-key-value-store-part-ii/"/>
-    <hyperlink ref="A10" r:id="rId8" display="http://blog.gainlo.co/index.php/2016/06/14/design-a-key-value-store-part-i/"/>
-    <hyperlink ref="A12" r:id="rId9" display="http://blog.gainlo.co/index.php/2016/06/07/random-id-generator/"/>
-    <hyperlink ref="A13" r:id="rId10" display="http://blog.gainlo.co/index.php/2016/05/24/design-a-recommendation-system/"/>
-    <hyperlink ref="A14" r:id="rId11" display="http://blog.gainlo.co/index.php/2016/05/17/design-a-cache-system/"/>
-    <hyperlink ref="A15" r:id="rId12" display="http://blog.gainlo.co/index.php/2016/05/03/how-to-design-a-trending-algorithm-for-twitter/"/>
-    <hyperlink ref="A16" r:id="rId13" display="http://blog.gainlo.co/index.php/2016/04/19/design-facebook-chat-function/"/>
-    <hyperlink ref="A18" r:id="rId14" display="http://blog.gainlo.co/index.php/2016/04/05/design-news-feed-system-part-2/"/>
-    <hyperlink ref="A17" r:id="rId15" display="http://blog.gainlo.co/index.php/2016/03/29/design-news-feed-system-part-1-system-design-interview-questions/"/>
-    <hyperlink ref="A19" r:id="rId16" display="http://blog.gainlo.co/index.php/2016/03/22/system-design-interview-question-how-to-design-google-docs/"/>
-    <hyperlink ref="A20" r:id="rId17" display="http://blog.gainlo.co/index.php/2016/03/08/system-design-interview-question-create-tinyurl-system/"/>
-    <hyperlink ref="A21" r:id="rId18" display="http://blog.gainlo.co/index.php/2016/03/01/system-design-interview-question-create-a-photo-sharing-app/"/>
-    <hyperlink ref="A23" r:id="rId19" display="http://blog.gainlo.co/index.php/2016/02/24/system-design-interview-question-how-to-design-twitter-part-2/"/>
-    <hyperlink ref="A22" r:id="rId20" display="http://blog.gainlo.co/index.php/2016/02/17/system-design-interview-question-how-to-design-twitter-part-1/"/>
+    <hyperlink ref="A5" r:id="rId1" display="http://blog.gainlo.co/index.php/2016/09/12/dropbox-interview-design-hit-counter/"/>
+    <hyperlink ref="A7" r:id="rId2" display="http://blog.gainlo.co/index.php/2016/08/28/design-ecommerce-website-part-ii/"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://blog.gainlo.co/index.php/2016/08/22/design-ecommerce-website-part/"/>
+    <hyperlink ref="A9" r:id="rId4" display="http://blog.gainlo.co/index.php/2016/08/08/design-garbage-collection-system-part-ii/"/>
+    <hyperlink ref="A8" r:id="rId5" display="http://blog.gainlo.co/index.php/2016/07/25/design-a-garbage-collection-system-part-i/"/>
+    <hyperlink ref="A10" r:id="rId6" display="http://blog.gainlo.co/index.php/2016/06/29/build-web-crawler/"/>
+    <hyperlink ref="A12" r:id="rId7" display="http://blog.gainlo.co/index.php/2016/06/21/design-key-value-store-part-ii/"/>
+    <hyperlink ref="A11" r:id="rId8" display="http://blog.gainlo.co/index.php/2016/06/14/design-a-key-value-store-part-i/"/>
+    <hyperlink ref="A13" r:id="rId9" display="http://blog.gainlo.co/index.php/2016/06/07/random-id-generator/"/>
+    <hyperlink ref="A14" r:id="rId10" display="http://blog.gainlo.co/index.php/2016/05/24/design-a-recommendation-system/"/>
+    <hyperlink ref="A15" r:id="rId11" display="http://blog.gainlo.co/index.php/2016/05/17/design-a-cache-system/"/>
+    <hyperlink ref="A16" r:id="rId12" display="http://blog.gainlo.co/index.php/2016/05/03/how-to-design-a-trending-algorithm-for-twitter/"/>
+    <hyperlink ref="A17" r:id="rId13" display="http://blog.gainlo.co/index.php/2016/04/19/design-facebook-chat-function/"/>
+    <hyperlink ref="A19" r:id="rId14" display="http://blog.gainlo.co/index.php/2016/04/05/design-news-feed-system-part-2/"/>
+    <hyperlink ref="A18" r:id="rId15" display="http://blog.gainlo.co/index.php/2016/03/29/design-news-feed-system-part-1-system-design-interview-questions/"/>
+    <hyperlink ref="A20" r:id="rId16" display="http://blog.gainlo.co/index.php/2016/03/22/system-design-interview-question-how-to-design-google-docs/"/>
+    <hyperlink ref="A21" r:id="rId17" display="http://blog.gainlo.co/index.php/2016/03/08/system-design-interview-question-create-tinyurl-system/"/>
+    <hyperlink ref="A22" r:id="rId18" display="http://blog.gainlo.co/index.php/2016/03/01/system-design-interview-question-create-a-photo-sharing-app/"/>
+    <hyperlink ref="A24" r:id="rId19" display="http://blog.gainlo.co/index.php/2016/02/24/system-design-interview-question-how-to-design-twitter-part-2/"/>
+    <hyperlink ref="A23" r:id="rId20" display="http://blog.gainlo.co/index.php/2016/02/17/system-design-interview-question-how-to-design-twitter-part-1/"/>
+    <hyperlink ref="A4" r:id="rId21" display="http://blog.gainlo.co/index.php/2015/10/22/8-things-you-need-to-know-before-system-design-interviews/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
